--- a/create_potential_aprt/inputs_outputs.xlsx
+++ b/create_potential_aprt/inputs_outputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Data\Forecast\Tools\create_forecast_ad_hoc\create_potential_aprt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B3D52-5C25-461A-BB82-4D2F690599AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166D6D5B-CB03-4802-A0E6-4A89244D37A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20130" yWindow="0" windowWidth="14340" windowHeight="7320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -45,14 +45,34 @@
     <t>with_project</t>
   </si>
   <si>
-    <t>W:\Projects\תכניות מרחביות\בדיקה מרחבית ארמון הנציב\קבצי עבודה\תחזיות_דמוגרפיות</t>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Users\Gidon\playground\תחזיות_דמוגרפיות</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -64,6 +84,24 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF44747"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,11 +124,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -110,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -429,7 +470,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -446,11 +487,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -503,6 +544,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>